--- a/file.xlsx
+++ b/file.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\jobPrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC5A82-8F41-4C28-B2CD-063F8B2E9436}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741EAE4C-877A-4926-B3E3-C8C89507AD09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="2780" windowWidth="14400" windowHeight="7270" xr2:uid="{D2205E4A-A70D-4110-BDB6-BC49ADB24DDC}"/>
+    <workbookView xWindow="4800" yWindow="2780" windowWidth="14400" windowHeight="7270" xr2:uid="{D2205E4A-A70D-4110-BDB6-BC49ADB24DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -39,13 +39,153 @@
   </si>
   <si>
     <t>DevOps</t>
+  </si>
+  <si>
+    <t>Cloud intern</t>
+  </si>
+  <si>
+    <t>Aws</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>Natural Language Processing</t>
+  </si>
+  <si>
+    <t>Data exploration, visualization and analysis</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>scikitlearn</t>
+  </si>
+  <si>
+    <t>Data Visualization</t>
+  </si>
+  <si>
+    <t>Tableau</t>
+  </si>
+  <si>
+    <t>SDLC</t>
+  </si>
+  <si>
+    <t>MLOps</t>
+  </si>
+  <si>
+    <t>companies</t>
+  </si>
+  <si>
+    <t>competitions</t>
+  </si>
+  <si>
+    <t>arbisoft fresh grad</t>
+  </si>
+  <si>
+    <t>i2c cgpa</t>
+  </si>
+  <si>
+    <t>devsinc</t>
+  </si>
+  <si>
+    <t>dubizzle</t>
+  </si>
+  <si>
+    <t>techlogix</t>
+  </si>
+  <si>
+    <t>tkxel</t>
+  </si>
+  <si>
+    <t>techverx</t>
+  </si>
+  <si>
+    <t>soliton</t>
+  </si>
+  <si>
+    <t>cherrybyte</t>
+  </si>
+  <si>
+    <t>pentaloop</t>
+  </si>
+  <si>
+    <t>inovaco</t>
+  </si>
+  <si>
+    <t>vecturedive</t>
+  </si>
+  <si>
+    <t>xevor</t>
+  </si>
+  <si>
+    <t>countour</t>
+  </si>
+  <si>
+    <t>systems</t>
+  </si>
+  <si>
+    <t>netsol</t>
+  </si>
+  <si>
+    <t>ssi</t>
+  </si>
+  <si>
+    <t>conrad labs</t>
+  </si>
+  <si>
+    <t>ili digital</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>amazon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fresh grad program</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">facebook meta hacker cup  </t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>icpc</t>
+  </si>
+  <si>
+    <t>november</t>
+  </si>
+  <si>
+    <t>microsoft imaging cup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +194,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="7"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
@@ -80,9 +235,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,25 +554,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0EDA3-F9BF-4655-8B7E-4EF27EA578E0}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="3">
+        <v>45555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="I4" s="1" t="s">
-        <v>2</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F21" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/file.xlsx
+++ b/file.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\jobPrep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741EAE4C-877A-4926-B3E3-C8C89507AD09}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24499177-971D-4632-8D20-C68A2DB6D92F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="2780" windowWidth="14400" windowHeight="7270" xr2:uid="{D2205E4A-A70D-4110-BDB6-BC49ADB24DDC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D2205E4A-A70D-4110-BDB6-BC49ADB24DDC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>title</t>
   </si>
@@ -180,12 +180,27 @@
   <si>
     <t>microsoft imaging cup</t>
   </si>
+  <si>
+    <t>Time series data</t>
+  </si>
+  <si>
+    <t>Large Language Models</t>
+  </si>
+  <si>
+    <t>Python (full data stack, incl. Pandas, SciPy, Scikit-Learn, jupyter, plotly)</t>
+  </si>
+  <si>
+    <t>LLM (langchain, pinecone, llama.cpp, transformers, OpenAI, chatGP</t>
+  </si>
+  <si>
+    <t>Git, docker, MATLAB, slurm, bash, linux, SQL (GoogleSQL, Postgres, MySQL)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,6 +229,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF676767"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -235,11 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -554,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E0EDA3-F9BF-4655-8B7E-4EF27EA578E0}">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,29 +733,54 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F21" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
